--- a/biology/Zoologie/Conus_gauguini/Conus_gauguini.xlsx
+++ b/biology/Zoologie/Conus_gauguini/Conus_gauguini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus gauguini est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille d'une coquille adulte varie entre 56 mm et 93 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Pacifique le long des îles Marquises et de Tahiti.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique aux îles Marquises. Cette espèce est inscrite comme quasi-menacée car elle a un AOO de 1 230 km2 et un déclin continu des populations, donc elle remplit presque B2ab(v)[1].
 </t>
         </is>
       </c>
@@ -573,19 +587,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique aux îles Marquises. Cette espèce est inscrite comme quasi-menacée car elle a un AOO de 1 230 km2 et un déclin continu des populations, donc elle remplit presque B2ab(v).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_gauguini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_gauguini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus gauguini a été décrite pour la première fois en 1973 par les malacologistes Georges Richard (d)[2] et Bernard A. Salvat (d) (1936-) dans la publication intitulée « Cahiers Pacifique »[3],[4].
-Synonymes
-Conus (Dendroconus) gauguini Richard &amp; B. Salvat, 1973 · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus gauguini a été décrite pour la première fois en 1973 par les malacologistes Georges Richard (d) et Bernard A. Salvat (d) (1936-) dans la publication intitulée « Cahiers Pacifique »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_gauguini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_gauguini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Dendroconus) gauguini Richard &amp; B. Salvat, 1973 · non accepté
 Conus (Pionoconus) gauguini Richard &amp; B. Salvat, 1973 · appellation alternative
-Pionoconus gauguini (Richard &amp; B. Salvat, 1973) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus gauguini dans les principales bases sont les suivants :
+Pionoconus gauguini (Richard &amp; B. Salvat, 1973) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_gauguini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_gauguini</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus gauguini dans les principales bases sont les suivants :
 CoL : XXGC - GBIF : 5857087 - iNaturalist : 431986 - IRMNG : 11705832 - NCBI : 528173 - TAXREF : 91985 - UICN : 192272 - WoRMS : 428982
 </t>
         </is>
